--- a/Output/Table3.xlsx
+++ b/Output/Table3.xlsx
@@ -416,7 +416,7 @@
         <v>43899</v>
       </c>
       <c r="C2">
-        <v>0.04279497968137519</v>
+        <v>0.04279549268760489</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -438,22 +438,22 @@
         <v>43906</v>
       </c>
       <c r="C3">
-        <v>0.06772342344499517</v>
+        <v>0.06772261264820557</v>
       </c>
       <c r="D3">
-        <v>0.02492844376361998</v>
+        <v>0.02492711996060069</v>
       </c>
       <c r="E3">
-        <v>-0.009978025571939815</v>
+        <v>-0.01047939650004155</v>
       </c>
       <c r="F3">
-        <v>0.0349064693355598</v>
+        <v>0.03540651646064223</v>
       </c>
       <c r="G3">
-        <v>0.2223045083274986</v>
+        <v>0.2283793832111516</v>
       </c>
       <c r="H3">
-        <v>0.7776954916725014</v>
+        <v>0.7716206167888483</v>
       </c>
     </row>
     <row r="4">
@@ -466,22 +466,22 @@
         <v>43907</v>
       </c>
       <c r="C4">
-        <v>0.07653217178664221</v>
+        <v>0.07653187936772365</v>
       </c>
       <c r="D4">
-        <v>0.03373719210526702</v>
+        <v>0.03373638668011877</v>
       </c>
       <c r="E4">
-        <v>-0.007045687999689553</v>
+        <v>-0.007267482430366687</v>
       </c>
       <c r="F4">
-        <v>0.04078288010495657</v>
+        <v>0.04100386911048545</v>
       </c>
       <c r="G4">
-        <v>0.147311288606299</v>
+        <v>0.1505547741752415</v>
       </c>
       <c r="H4">
-        <v>0.852688711393701</v>
+        <v>0.8494452258247586</v>
       </c>
     </row>
     <row r="5">
@@ -494,22 +494,22 @@
         <v>43908</v>
       </c>
       <c r="C5">
-        <v>0.08049089341523871</v>
+        <v>0.08049062233732643</v>
       </c>
       <c r="D5">
-        <v>0.03769591373386352</v>
+        <v>0.03769512964972154</v>
       </c>
       <c r="E5">
-        <v>-0.007513715262131073</v>
+        <v>-0.007701953802140163</v>
       </c>
       <c r="F5">
-        <v>0.0452096289959946</v>
+        <v>0.04539708345186169</v>
       </c>
       <c r="G5">
-        <v>0.1425121142798727</v>
+        <v>0.14504884081603</v>
       </c>
       <c r="H5">
-        <v>0.8574878857201274</v>
+        <v>0.8549511591839699</v>
       </c>
     </row>
     <row r="6">
@@ -525,19 +525,19 @@
         <v>0.08527609078951051</v>
       </c>
       <c r="D6">
-        <v>0.04248111110813532</v>
+        <v>0.04248059810190562</v>
       </c>
       <c r="E6">
-        <v>-0.01129798012298949</v>
+        <v>-0.01173544055097419</v>
       </c>
       <c r="F6">
-        <v>0.05377909123112481</v>
+        <v>0.05421603865287981</v>
       </c>
       <c r="G6">
-        <v>0.1736092280722343</v>
+        <v>0.17794052070766</v>
       </c>
       <c r="H6">
-        <v>0.8263907719277658</v>
+        <v>0.8220594792923401</v>
       </c>
     </row>
     <row r="7">
@@ -550,22 +550,22 @@
         <v>43909</v>
       </c>
       <c r="C7">
-        <v>0.09151249399327247</v>
+        <v>0.09151276883940666</v>
       </c>
       <c r="D7">
-        <v>0.04871751431189728</v>
+        <v>0.04871727615180176</v>
       </c>
       <c r="E7">
-        <v>-0.00772850117952549</v>
+        <v>-0.007802166799712454</v>
       </c>
       <c r="F7">
-        <v>0.05644601549142276</v>
+        <v>0.05651944295151422</v>
       </c>
       <c r="G7">
-        <v>0.1204294411620271</v>
+        <v>0.1212993087375843</v>
       </c>
       <c r="H7">
-        <v>0.879570558837973</v>
+        <v>0.8787006912624158</v>
       </c>
     </row>
     <row r="8">
@@ -578,22 +578,22 @@
         <v>43910</v>
       </c>
       <c r="C8">
-        <v>0.07887737772157766</v>
+        <v>0.07887698887094986</v>
       </c>
       <c r="D8">
-        <v>0.03608239804020245</v>
+        <v>0.03608149618334498</v>
       </c>
       <c r="E8">
-        <v>-0.008869543837498264</v>
+        <v>-0.008945727429587139</v>
       </c>
       <c r="F8">
-        <v>0.04495194187770071</v>
+        <v>0.04502722361293211</v>
       </c>
       <c r="G8">
-        <v>0.1647955963986617</v>
+        <v>0.1657446416546652</v>
       </c>
       <c r="H8">
-        <v>0.8352044036013383</v>
+        <v>0.8342553583453349</v>
       </c>
     </row>
     <row r="9">
@@ -609,19 +609,19 @@
         <v>0.08132250730196258</v>
       </c>
       <c r="D9">
-        <v>0.03852752762058739</v>
+        <v>0.03852701461435768</v>
       </c>
       <c r="E9">
-        <v>-0.00910589357501492</v>
+        <v>-0.009197806527930343</v>
       </c>
       <c r="F9">
-        <v>0.04763342119560231</v>
+        <v>0.04772482114228803</v>
       </c>
       <c r="G9">
-        <v>0.1604864918060388</v>
+        <v>0.1615843629218577</v>
       </c>
       <c r="H9">
-        <v>0.8395135081939611</v>
+        <v>0.8384156370781424</v>
       </c>
     </row>
     <row r="10">
@@ -634,22 +634,22 @@
         <v>43912</v>
       </c>
       <c r="C10">
-        <v>0.08842207819211188</v>
+        <v>0.08841811769411888</v>
       </c>
       <c r="D10">
-        <v>0.04562709851073668</v>
+        <v>0.04562262500651399</v>
       </c>
       <c r="E10">
-        <v>-0.008685979133095075</v>
+        <v>-0.008760123667387685</v>
       </c>
       <c r="F10">
-        <v>0.05431307764383176</v>
+        <v>0.05438274867390167</v>
       </c>
       <c r="G10">
-        <v>0.1378747488847529</v>
+        <v>0.1387349568141107</v>
       </c>
       <c r="H10">
-        <v>0.8621252511152471</v>
+        <v>0.8612650431858894</v>
       </c>
     </row>
     <row r="11">
@@ -662,22 +662,22 @@
         <v>43913</v>
       </c>
       <c r="C11">
-        <v>0.08655247279230062</v>
+        <v>0.08655089758402457</v>
       </c>
       <c r="D11">
-        <v>0.04375749311092543</v>
+        <v>0.04375540489641968</v>
       </c>
       <c r="E11">
-        <v>-0.01084888190826628</v>
+        <v>-0.01134134369417696</v>
       </c>
       <c r="F11">
-        <v>0.05460637501919171</v>
+        <v>0.05509674859059664</v>
       </c>
       <c r="G11">
-        <v>0.1657450053292091</v>
+        <v>0.1707054387649266</v>
       </c>
       <c r="H11">
-        <v>0.8342549946707908</v>
+        <v>0.8292945612350734</v>
       </c>
     </row>
     <row r="12">
@@ -690,22 +690,22 @@
         <v>43913</v>
       </c>
       <c r="C12">
-        <v>0.09190269019211474</v>
+        <v>0.0919005225823699</v>
       </c>
       <c r="D12">
-        <v>0.04910771051073953</v>
+        <v>0.04910502989476501</v>
       </c>
       <c r="E12">
-        <v>-0.007456303100598611</v>
+        <v>-0.007595670867927059</v>
       </c>
       <c r="F12">
-        <v>0.05656401361133814</v>
+        <v>0.05670070076269207</v>
       </c>
       <c r="G12">
-        <v>0.1164677634156153</v>
+        <v>0.1181352955896793</v>
       </c>
       <c r="H12">
-        <v>0.8835322365843847</v>
+        <v>0.8818647044103207</v>
       </c>
     </row>
     <row r="13">
@@ -718,22 +718,22 @@
         <v>43914</v>
       </c>
       <c r="C13">
-        <v>0.09303356225207697</v>
+        <v>0.09303340607688435</v>
       </c>
       <c r="D13">
-        <v>0.05023858257070178</v>
+        <v>0.05023791338927946</v>
       </c>
       <c r="E13">
-        <v>-0.007617403848323036</v>
+        <v>-0.00777813616395686</v>
       </c>
       <c r="F13">
-        <v>0.05785598641902482</v>
+        <v>0.05801604955323631</v>
       </c>
       <c r="G13">
-        <v>0.1163435071441825</v>
+        <v>0.1182192024898683</v>
       </c>
       <c r="H13">
-        <v>0.8836564928558175</v>
+        <v>0.8817807975101317</v>
       </c>
     </row>
     <row r="14">
@@ -746,22 +746,22 @@
         <v>43915</v>
       </c>
       <c r="C14">
-        <v>0.0976124040839622</v>
+        <v>0.09761224933057054</v>
       </c>
       <c r="D14">
-        <v>0.05481742440258701</v>
+        <v>0.05481675664296565</v>
       </c>
       <c r="E14">
-        <v>-0.006581492434603124</v>
+        <v>-0.006745914997421222</v>
       </c>
       <c r="F14">
-        <v>0.06139891683719013</v>
+        <v>0.06156267164038688</v>
       </c>
       <c r="G14">
-        <v>0.09681454561842344</v>
+        <v>0.09875647161593339</v>
       </c>
       <c r="H14">
-        <v>0.9031854543815765</v>
+        <v>0.9012435283840665</v>
       </c>
     </row>
     <row r="15">
@@ -774,22 +774,22 @@
         <v>43916</v>
       </c>
       <c r="C15">
-        <v>0.09217945242613174</v>
+        <v>0.09217957736456678</v>
       </c>
       <c r="D15">
-        <v>0.04938447274475655</v>
+        <v>0.04938408467696189</v>
       </c>
       <c r="E15">
-        <v>-0.01081225946419729</v>
+        <v>-0.01130594266591633</v>
       </c>
       <c r="F15">
-        <v>0.06019673220895384</v>
+        <v>0.06069002734287823</v>
       </c>
       <c r="G15">
-        <v>0.1522660610921681</v>
+        <v>0.1570357710929552</v>
       </c>
       <c r="H15">
-        <v>0.8477339389078318</v>
+        <v>0.8429642289070448</v>
       </c>
     </row>
     <row r="16">
@@ -802,22 +802,22 @@
         <v>43916</v>
       </c>
       <c r="C16">
-        <v>0.09630552684121838</v>
+        <v>0.09630552684121836</v>
       </c>
       <c r="D16">
-        <v>0.05351054715984319</v>
+        <v>0.05351003415361347</v>
       </c>
       <c r="E16">
-        <v>-0.008526493230687028</v>
+        <v>-0.008642120971093972</v>
       </c>
       <c r="F16">
-        <v>0.06203704039053021</v>
+        <v>0.06215215512470745</v>
       </c>
       <c r="G16">
-        <v>0.1208342722241912</v>
+        <v>0.1220737247090307</v>
       </c>
       <c r="H16">
-        <v>0.8791657277758089</v>
+        <v>0.8779262752909695</v>
       </c>
     </row>
     <row r="17">
@@ -830,22 +830,22 @@
         <v>43917</v>
       </c>
       <c r="C17">
-        <v>0.09852664373336795</v>
+        <v>0.09852677163207846</v>
       </c>
       <c r="D17">
-        <v>0.05573166405199276</v>
+        <v>0.05573127894447357</v>
       </c>
       <c r="E17">
-        <v>-0.008867752103041028</v>
+        <v>-0.008912367949870338</v>
       </c>
       <c r="F17">
-        <v>0.06459941615503378</v>
+        <v>0.0646436468943439</v>
       </c>
       <c r="G17">
-        <v>0.1207036056145579</v>
+        <v>0.1211643666224444</v>
       </c>
       <c r="H17">
-        <v>0.8792963943854422</v>
+        <v>0.8788356333775556</v>
       </c>
     </row>
     <row r="18">
@@ -861,19 +861,19 @@
         <v>0.1040718415549268</v>
       </c>
       <c r="D18">
-        <v>0.06127686187355161</v>
+        <v>0.06127634886732191</v>
       </c>
       <c r="E18">
-        <v>-0.008065671265138347</v>
+        <v>-0.008534332691252207</v>
       </c>
       <c r="F18">
-        <v>0.06934253313868996</v>
+        <v>0.06981068155857413</v>
       </c>
       <c r="G18">
-        <v>0.1041965942403316</v>
+        <v>0.1089326841404094</v>
       </c>
       <c r="H18">
-        <v>0.8958034057596683</v>
+        <v>0.8910673158595905</v>
       </c>
     </row>
     <row r="19">
@@ -886,22 +886,22 @@
         <v>43919</v>
       </c>
       <c r="C19">
-        <v>0.1068344327581872</v>
+        <v>0.1068333978350594</v>
       </c>
       <c r="D19">
-        <v>0.06403945307681198</v>
+        <v>0.06403790514745453</v>
       </c>
       <c r="E19">
-        <v>-0.00863020512009219</v>
+        <v>-0.009089977724716526</v>
       </c>
       <c r="F19">
-        <v>0.07266965819690417</v>
+        <v>0.07312788287217106</v>
       </c>
       <c r="G19">
-        <v>0.106152762968889</v>
+        <v>0.1105596479733825</v>
       </c>
       <c r="H19">
-        <v>0.893847237031111</v>
+        <v>0.8894403520266175</v>
       </c>
     </row>
     <row r="20">
@@ -914,22 +914,22 @@
         <v>43920</v>
       </c>
       <c r="C20">
-        <v>0.1063044932728674</v>
+        <v>0.1063066138915367</v>
       </c>
       <c r="D20">
-        <v>0.06350951359149225</v>
+        <v>0.06351112120393182</v>
       </c>
       <c r="E20">
-        <v>-0.0114207038621254</v>
+        <v>-0.01193157164180236</v>
       </c>
       <c r="F20">
-        <v>0.07493021745361764</v>
+        <v>0.0754426928457342</v>
       </c>
       <c r="G20">
-        <v>0.132259201038116</v>
+        <v>0.1365570481397796</v>
       </c>
       <c r="H20">
-        <v>0.8677407989618839</v>
+        <v>0.8634429518602205</v>
       </c>
     </row>
     <row r="21">
@@ -942,22 +942,22 @@
         <v>43920</v>
       </c>
       <c r="C21">
-        <v>0.1094197125301494</v>
+        <v>0.1094216564513594</v>
       </c>
       <c r="D21">
-        <v>0.06662473284877422</v>
+        <v>0.06662616376375452</v>
       </c>
       <c r="E21">
-        <v>-0.009545503091286383</v>
+        <v>-0.01007276215778308</v>
       </c>
       <c r="F21">
-        <v>0.0761702359400606</v>
+        <v>0.07669892592153758</v>
       </c>
       <c r="G21">
-        <v>0.1113623145429046</v>
+        <v>0.1160835104253735</v>
       </c>
       <c r="H21">
-        <v>0.8886376854570955</v>
+        <v>0.8839164895746265</v>
       </c>
     </row>
     <row r="22">
@@ -970,22 +970,22 @@
         <v>43921</v>
       </c>
       <c r="C22">
-        <v>0.1160765145222934</v>
+        <v>0.1160763913934513</v>
       </c>
       <c r="D22">
-        <v>0.07328153484091821</v>
+        <v>0.07328089870584645</v>
       </c>
       <c r="E22">
-        <v>-0.008053654481099522</v>
+        <v>-0.008594126959789552</v>
       </c>
       <c r="F22">
-        <v>0.08133518932201773</v>
+        <v>0.081875025665636</v>
       </c>
       <c r="G22">
-        <v>0.0900968637522378</v>
+        <v>0.09499510839205373</v>
       </c>
       <c r="H22">
-        <v>0.9099031362477621</v>
+        <v>0.9050048916079463</v>
       </c>
     </row>
     <row r="23">
@@ -1001,19 +1001,19 @@
         <v>0.1183116074493307</v>
       </c>
       <c r="D23">
-        <v>0.07551662776795548</v>
+        <v>0.07551611476172579</v>
       </c>
       <c r="E23">
-        <v>-0.009476669799363275</v>
+        <v>-0.01006122870785813</v>
       </c>
       <c r="F23">
-        <v>0.08499329756731874</v>
+        <v>0.08557734346958391</v>
       </c>
       <c r="G23">
-        <v>0.1003141004863472</v>
+        <v>0.1052005323667017</v>
       </c>
       <c r="H23">
-        <v>0.8996858995136529</v>
+        <v>0.8947994676332983</v>
       </c>
     </row>
     <row r="24">
@@ -1026,22 +1026,22 @@
         <v>43923</v>
       </c>
       <c r="C24">
-        <v>0.1226523797004936</v>
+        <v>0.1226522598312383</v>
       </c>
       <c r="D24">
-        <v>0.07985740001911845</v>
+        <v>0.07985676714363343</v>
       </c>
       <c r="E24">
-        <v>-0.009071948187317032</v>
+        <v>-0.009450035996411895</v>
       </c>
       <c r="F24">
-        <v>0.08892934820643547</v>
+        <v>0.08930680314004531</v>
       </c>
       <c r="G24">
-        <v>0.09256967531192129</v>
+        <v>0.09568993984664002</v>
       </c>
       <c r="H24">
-        <v>0.9074303246880787</v>
+        <v>0.90431006015336</v>
       </c>
     </row>
     <row r="25">
@@ -1054,22 +1054,22 @@
         <v>43923</v>
       </c>
       <c r="C25">
-        <v>0.1184246036314362</v>
+        <v>0.1184248271280611</v>
       </c>
       <c r="D25">
-        <v>0.07562962395006102</v>
+        <v>0.07562933444045622</v>
       </c>
       <c r="E25">
-        <v>-0.01140677977896734</v>
+        <v>-0.01198187879081628</v>
       </c>
       <c r="F25">
-        <v>0.08703640372902835</v>
+        <v>0.08761121323127249</v>
       </c>
       <c r="G25">
-        <v>0.1158717076438397</v>
+        <v>0.1203083321096087</v>
       </c>
       <c r="H25">
-        <v>0.8841282923561603</v>
+        <v>0.8796916678903913</v>
       </c>
     </row>
     <row r="26">
@@ -1082,22 +1082,22 @@
         <v>43924</v>
       </c>
       <c r="C26">
-        <v>0.1181611796663894</v>
+        <v>0.1181602872777506</v>
       </c>
       <c r="D26">
-        <v>0.07536619998501425</v>
+        <v>0.07536479459014572</v>
       </c>
       <c r="E26">
-        <v>-0.01145375597451745</v>
+        <v>-0.01195920358542672</v>
       </c>
       <c r="F26">
-        <v>0.08681995595953169</v>
+        <v>0.08732399817557245</v>
       </c>
       <c r="G26">
-        <v>0.1165495405546907</v>
+        <v>0.1204554584592838</v>
       </c>
       <c r="H26">
-        <v>0.8834504594453093</v>
+        <v>0.8795445415407163</v>
       </c>
     </row>
     <row r="27">
@@ -1110,22 +1110,22 @@
         <v>43925</v>
       </c>
       <c r="C27">
-        <v>0.1188531459155056</v>
+        <v>0.1188512226001171</v>
       </c>
       <c r="D27">
-        <v>0.07605816623413035</v>
+        <v>0.07605572991251217</v>
       </c>
       <c r="E27">
-        <v>-0.01154978921494576</v>
+        <v>-0.01201565855867775</v>
       </c>
       <c r="F27">
-        <v>0.0876079554490761</v>
+        <v>0.08807138847118992</v>
       </c>
       <c r="G27">
-        <v>0.1164789422558988</v>
+        <v>0.1200520838135236</v>
       </c>
       <c r="H27">
-        <v>0.8835210577441012</v>
+        <v>0.8799479161864764</v>
       </c>
     </row>
     <row r="28">
@@ -1138,22 +1138,22 @@
         <v>43926</v>
       </c>
       <c r="C28">
-        <v>0.118447929364478</v>
+        <v>0.1184472032807328</v>
       </c>
       <c r="D28">
-        <v>0.07565294968310279</v>
+        <v>0.07565171059312789</v>
       </c>
       <c r="E28">
-        <v>-0.01243645605491178</v>
+        <v>-0.01289169010586391</v>
       </c>
       <c r="F28">
-        <v>0.08808940573801456</v>
+        <v>0.0885434006989918</v>
       </c>
       <c r="G28">
-        <v>0.1237139959121135</v>
+        <v>0.1270930010864326</v>
       </c>
       <c r="H28">
-        <v>0.8762860040878865</v>
+        <v>0.8729069989135675</v>
       </c>
     </row>
     <row r="29">
@@ -1166,22 +1166,22 @@
         <v>43927</v>
       </c>
       <c r="C29">
-        <v>0.1193313589320245</v>
+        <v>0.1193307475487244</v>
       </c>
       <c r="D29">
-        <v>0.0765363792506493</v>
+        <v>0.07653525486111951</v>
       </c>
       <c r="E29">
-        <v>-0.01151126735269938</v>
+        <v>-0.01201674115314846</v>
       </c>
       <c r="F29">
-        <v>0.08804764660334867</v>
+        <v>0.08855199601426796</v>
       </c>
       <c r="G29">
-        <v>0.1156226689835249</v>
+        <v>0.1194878397761348</v>
       </c>
       <c r="H29">
-        <v>0.8843773310164752</v>
+        <v>0.8805121602238653</v>
       </c>
     </row>
     <row r="30">
@@ -1194,22 +1194,22 @@
         <v>43927</v>
       </c>
       <c r="C30">
-        <v>0.1182909112619157</v>
+        <v>0.1182901152261737</v>
       </c>
       <c r="D30">
-        <v>0.07549593158054047</v>
+        <v>0.07549462253856876</v>
       </c>
       <c r="E30">
-        <v>-0.01213336871513397</v>
+        <v>-0.0125874609386457</v>
       </c>
       <c r="F30">
-        <v>0.08762930029567444</v>
+        <v>0.08808208347721445</v>
       </c>
       <c r="G30">
-        <v>0.1216223346412216</v>
+        <v>0.1250374282677551</v>
       </c>
       <c r="H30">
-        <v>0.8783776653587784</v>
+        <v>0.8749625717322449</v>
       </c>
     </row>
     <row r="31">
@@ -1222,22 +1222,22 @@
         <v>43928</v>
       </c>
       <c r="C31">
-        <v>0.1217562856861356</v>
+        <v>0.1217573532574061</v>
       </c>
       <c r="D31">
-        <v>0.07896130600476041</v>
+        <v>0.07896186056980117</v>
       </c>
       <c r="E31">
-        <v>-0.01167466098311032</v>
+        <v>-0.01213877532354349</v>
       </c>
       <c r="F31">
-        <v>0.09063596698787073</v>
+        <v>0.09110063589334465</v>
       </c>
       <c r="G31">
-        <v>0.1141099533317464</v>
+        <v>0.1175788895002706</v>
       </c>
       <c r="H31">
-        <v>0.8858900466682536</v>
+        <v>0.8824211104997294</v>
       </c>
     </row>
     <row r="32">
@@ -1250,22 +1250,22 @@
         <v>43929</v>
       </c>
       <c r="C32">
-        <v>0.1258727479889316</v>
+        <v>0.1258695347424495</v>
       </c>
       <c r="D32">
-        <v>0.08307776830755645</v>
+        <v>0.08307404205484462</v>
       </c>
       <c r="E32">
-        <v>-0.009579282474172944</v>
+        <v>-0.00999570396931908</v>
       </c>
       <c r="F32">
-        <v>0.09265705078172939</v>
+        <v>0.09306974602416368</v>
       </c>
       <c r="G32">
-        <v>0.09369743778071099</v>
+        <v>0.0969840423726006</v>
       </c>
       <c r="H32">
-        <v>0.906302562219289</v>
+        <v>0.9030159576273994</v>
       </c>
     </row>
     <row r="33">
@@ -1278,22 +1278,22 @@
         <v>43930</v>
       </c>
       <c r="C33">
-        <v>0.1223575620031137</v>
+        <v>0.122356092604443</v>
       </c>
       <c r="D33">
-        <v>0.07956258232173846</v>
+        <v>0.07956059991683812</v>
       </c>
       <c r="E33">
-        <v>-0.01114468018009188</v>
+        <v>-0.01158899952857768</v>
       </c>
       <c r="F33">
-        <v>0.09070726250183034</v>
+        <v>0.09114959944541581</v>
       </c>
       <c r="G33">
-        <v>0.1094203987340338</v>
+        <v>0.1128008328350987</v>
       </c>
       <c r="H33">
-        <v>0.8905796012659663</v>
+        <v>0.8871991671649013</v>
       </c>
     </row>
     <row r="34">
@@ -1306,22 +1306,22 @@
         <v>43930</v>
       </c>
       <c r="C34">
-        <v>0.1243904315397388</v>
+        <v>0.1243886590084101</v>
       </c>
       <c r="D34">
-        <v>0.08159545185836355</v>
+        <v>0.08159316632080524</v>
       </c>
       <c r="E34">
-        <v>-0.01005642330480628</v>
+        <v>-0.010450814751991</v>
       </c>
       <c r="F34">
-        <v>0.09165187516316983</v>
+        <v>0.09204398107279625</v>
       </c>
       <c r="G34">
-        <v>0.09887515036909841</v>
+        <v>0.1019643452908229</v>
       </c>
       <c r="H34">
-        <v>0.9011248496309017</v>
+        <v>0.8980356547091771</v>
       </c>
     </row>
     <row r="35">
@@ -1334,22 +1334,22 @@
         <v>43931</v>
       </c>
       <c r="C35">
-        <v>0.1268088555873235</v>
+        <v>0.1268083105054177</v>
       </c>
       <c r="D35">
-        <v>0.0840138759059483</v>
+        <v>0.08401281781781284</v>
       </c>
       <c r="E35">
-        <v>-0.01001969803786466</v>
+        <v>-0.01043916346306427</v>
       </c>
       <c r="F35">
-        <v>0.09403357394381297</v>
+        <v>0.09445198128087709</v>
       </c>
       <c r="G35">
-        <v>0.09629392566943008</v>
+        <v>0.09952378237980138</v>
       </c>
       <c r="H35">
-        <v>0.9037060743305698</v>
+        <v>0.9004762176201986</v>
       </c>
     </row>
     <row r="36">
@@ -1362,22 +1362,22 @@
         <v>43932</v>
       </c>
       <c r="C36">
-        <v>0.1272849213132388</v>
+        <v>0.1272850117438769</v>
       </c>
       <c r="D36">
-        <v>0.08448994163186357</v>
+        <v>0.08448951905627203</v>
       </c>
       <c r="E36">
-        <v>-0.009683323909429251</v>
+        <v>-0.01009605021245804</v>
       </c>
       <c r="F36">
-        <v>0.09417326554129282</v>
+        <v>0.09458556926873005</v>
       </c>
       <c r="G36">
-        <v>0.09323745330597247</v>
+        <v>0.09644530016343852</v>
       </c>
       <c r="H36">
-        <v>0.9067625466940276</v>
+        <v>0.9035546998365615</v>
       </c>
     </row>
     <row r="37">
@@ -1390,22 +1390,22 @@
         <v>43933</v>
       </c>
       <c r="C37">
-        <v>0.1281226325196061</v>
+        <v>0.1281204503424168</v>
       </c>
       <c r="D37">
-        <v>0.08532765283823085</v>
+        <v>0.08532495765481188</v>
       </c>
       <c r="E37">
-        <v>-0.009304179904770196</v>
+        <v>-0.009688529023479562</v>
       </c>
       <c r="F37">
-        <v>0.09463183274300105</v>
+        <v>0.09501348667829145</v>
       </c>
       <c r="G37">
-        <v>0.08951834564118917</v>
+        <v>0.09253431233908596</v>
       </c>
       <c r="H37">
-        <v>0.9104816543588108</v>
+        <v>0.907465687660914</v>
       </c>
     </row>
     <row r="38">
@@ -1421,19 +1421,19 @@
         <v>0.1273979942618996</v>
       </c>
       <c r="D38">
-        <v>0.08460301458052438</v>
+        <v>0.08460250157429472</v>
       </c>
       <c r="E38">
-        <v>-0.008477523240041349</v>
+        <v>-0.008829469244627762</v>
       </c>
       <c r="F38">
-        <v>0.09308053782056573</v>
+        <v>0.09343197081892248</v>
       </c>
       <c r="G38">
-        <v>0.08347464643877155</v>
+        <v>0.08634211721584109</v>
       </c>
       <c r="H38">
-        <v>0.9165253535612284</v>
+        <v>0.9136578827841589</v>
       </c>
     </row>
     <row r="39">
@@ -1446,22 +1446,22 @@
         <v>43936</v>
       </c>
       <c r="C39">
-        <v>0.1254802475385404</v>
+        <v>0.1254792814685551</v>
       </c>
       <c r="D39">
-        <v>0.08268526785716521</v>
+        <v>0.0826837887809502</v>
       </c>
       <c r="E39">
-        <v>-0.009780214509691345</v>
+        <v>-0.01007294757108519</v>
       </c>
       <c r="F39">
-        <v>0.09246548236685655</v>
+        <v>0.09275673635203538</v>
       </c>
       <c r="G39">
-        <v>0.09565404519175061</v>
+        <v>0.09795758565801011</v>
       </c>
       <c r="H39">
-        <v>0.9043459548082494</v>
+        <v>0.9020424143419898</v>
       </c>
     </row>
     <row r="40">
@@ -1474,22 +1474,22 @@
         <v>43937</v>
       </c>
       <c r="C40">
-        <v>0.1256765105724516</v>
+        <v>0.125676431583777</v>
       </c>
       <c r="D40">
-        <v>0.08288153089107642</v>
+        <v>0.08288093889617207</v>
       </c>
       <c r="E40">
-        <v>-0.01022279662306459</v>
+        <v>-0.01054772225316979</v>
       </c>
       <c r="F40">
-        <v>0.09310432751414101</v>
+        <v>0.09342866114934187</v>
       </c>
       <c r="G40">
-        <v>0.09893623487952673</v>
+        <v>0.1014434423280296</v>
       </c>
       <c r="H40">
-        <v>0.9010637651204733</v>
+        <v>0.8985565576719704</v>
       </c>
     </row>
     <row r="41">
@@ -1502,22 +1502,22 @@
         <v>43938</v>
       </c>
       <c r="C41">
-        <v>0.1267314387299079</v>
+        <v>0.1267307432342762</v>
       </c>
       <c r="D41">
-        <v>0.08393645904853272</v>
+        <v>0.08393525054667128</v>
       </c>
       <c r="E41">
-        <v>-0.009084145611448668</v>
+        <v>-0.009344758275452674</v>
       </c>
       <c r="F41">
-        <v>0.09302060465998138</v>
+        <v>0.09328000882212395</v>
       </c>
       <c r="G41">
-        <v>0.08896888330170574</v>
+        <v>0.0910575345478503</v>
       </c>
       <c r="H41">
-        <v>0.9110311166982942</v>
+        <v>0.9089424654521497</v>
       </c>
     </row>
     <row r="42">
@@ -1530,22 +1530,22 @@
         <v>43941</v>
       </c>
       <c r="C42">
-        <v>0.127276023786224</v>
+        <v>0.1272752828730058</v>
       </c>
       <c r="D42">
-        <v>0.08448104410484883</v>
+        <v>0.08447979018540094</v>
       </c>
       <c r="E42">
-        <v>-0.008780667093857532</v>
+        <v>-0.008995464874863166</v>
       </c>
       <c r="F42">
-        <v>0.09326171119870634</v>
+        <v>0.09347525506026412</v>
       </c>
       <c r="G42">
-        <v>0.08604922034140206</v>
+        <v>0.08778570971842556</v>
       </c>
       <c r="H42">
-        <v>0.9139507796585978</v>
+        <v>0.9122142902815745</v>
       </c>
     </row>
     <row r="43">
@@ -1558,22 +1558,22 @@
         <v>43943</v>
       </c>
       <c r="C43">
-        <v>0.1300063316640764</v>
+        <v>0.1300061819994451</v>
       </c>
       <c r="D43">
-        <v>0.08721135198270125</v>
+        <v>0.08721068931184023</v>
       </c>
       <c r="E43">
-        <v>-0.007891636189482411</v>
+        <v>-0.008081504117990253</v>
       </c>
       <c r="F43">
-        <v>0.09510298817218367</v>
+        <v>0.09529219342983047</v>
       </c>
       <c r="G43">
-        <v>0.0766218260262875</v>
+        <v>0.07817756653477298</v>
       </c>
       <c r="H43">
-        <v>0.9233781739737125</v>
+        <v>0.9218224334652271</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Table3.xlsx
+++ b/Output/Table3.xlsx
@@ -355,13 +355,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="20.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1">
@@ -372,35 +372,40 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Code</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>CFR1</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>DiffITt</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>AgeCompITt</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>RateCompITt</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>relAgeDE</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>relRateDE</t>
         </is>
@@ -412,14 +417,16 @@
           <t>Italy</t>
         </is>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ITbol09.03.2020</t>
+        </is>
+      </c>
+      <c r="C2" s="2">
         <v>43899</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>0.04279549268760489</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -427,6 +434,9 @@
       <c r="F2">
         <v>0</v>
       </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -434,26 +444,31 @@
           <t>Italy</t>
         </is>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ITbol16.03.2020</t>
+        </is>
+      </c>
+      <c r="C3" s="2">
         <v>43906</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.06772261264820557</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.02492711996060069</v>
       </c>
-      <c r="E3">
-        <v>-0.01047939650004155</v>
-      </c>
       <c r="F3">
-        <v>0.03540651646064223</v>
+        <v>-0.002699500437700474</v>
       </c>
       <c r="G3">
-        <v>0.2283793832111516</v>
+        <v>0.02762662039830116</v>
       </c>
       <c r="H3">
-        <v>0.7716206167888483</v>
+        <v>0.08901568559654896</v>
+      </c>
+      <c r="I3">
+        <v>0.9109843144034511</v>
       </c>
     </row>
     <row r="4">
@@ -462,26 +477,31 @@
           <t>Italy</t>
         </is>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ITinfo17.03.2020</t>
+        </is>
+      </c>
+      <c r="C4" s="2">
         <v>43907</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>0.07653187936772365</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.03373638668011877</v>
       </c>
-      <c r="E4">
-        <v>-0.007267482430366687</v>
-      </c>
       <c r="F4">
-        <v>0.04100386911048545</v>
+        <v>0.0009951071844081943</v>
       </c>
       <c r="G4">
-        <v>0.1505547741752415</v>
+        <v>0.03274127949571057</v>
       </c>
       <c r="H4">
-        <v>0.8494452258247586</v>
+        <v>0.02949655497619199</v>
+      </c>
+      <c r="I4">
+        <v>0.970503445023808</v>
       </c>
     </row>
     <row r="5">
@@ -490,26 +510,31 @@
           <t>Italy</t>
         </is>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ITinfo18.03.2020</t>
+        </is>
+      </c>
+      <c r="C5" s="2">
         <v>43908</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>0.08049062233732643</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>0.03769512964972154</v>
       </c>
-      <c r="E5">
-        <v>-0.007701953802140163</v>
-      </c>
       <c r="F5">
-        <v>0.04539708345186169</v>
+        <v>0.0001552873509579858</v>
       </c>
       <c r="G5">
-        <v>0.14504884081603</v>
+        <v>0.03753984229876355</v>
       </c>
       <c r="H5">
-        <v>0.8549511591839699</v>
+        <v>0.004119560070517834</v>
+      </c>
+      <c r="I5">
+        <v>0.9958804399294821</v>
       </c>
     </row>
     <row r="6">
@@ -518,26 +543,31 @@
           <t>Italy</t>
         </is>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ITbol19.03.2020</t>
+        </is>
+      </c>
+      <c r="C6" s="2">
         <v>43909</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>0.08527609078951051</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.04248059810190562</v>
       </c>
-      <c r="E6">
-        <v>-0.01173544055097419</v>
-      </c>
       <c r="F6">
-        <v>0.05421603865287981</v>
+        <v>-0.00433373070296125</v>
       </c>
       <c r="G6">
-        <v>0.17794052070766</v>
+        <v>0.04681432880486687</v>
       </c>
       <c r="H6">
-        <v>0.8220594792923401</v>
+        <v>0.08472913233977097</v>
+      </c>
+      <c r="I6">
+        <v>0.915270867660229</v>
       </c>
     </row>
     <row r="7">
@@ -546,26 +576,31 @@
           <t>Italy</t>
         </is>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ITinfo19.03.2020</t>
+        </is>
+      </c>
+      <c r="C7" s="2">
         <v>43909</v>
       </c>
-      <c r="C7">
-        <v>0.09151276883940666</v>
-      </c>
       <c r="D7">
-        <v>0.04871727615180176</v>
+        <v>0.09151249399327248</v>
       </c>
       <c r="E7">
-        <v>-0.007802166799712454</v>
+        <v>0.04871700130566759</v>
       </c>
       <c r="F7">
-        <v>0.05651944295151422</v>
+        <v>-9.952795285952124e-005</v>
       </c>
       <c r="G7">
-        <v>0.1212993087375843</v>
+        <v>0.04881652925852711</v>
       </c>
       <c r="H7">
-        <v>0.8787006912624158</v>
+        <v>0.002034668338648382</v>
+      </c>
+      <c r="I7">
+        <v>0.9979653316613516</v>
       </c>
     </row>
     <row r="8">
@@ -574,26 +609,31 @@
           <t>Italy</t>
         </is>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ITinfo20.03.2020</t>
+        </is>
+      </c>
+      <c r="C8" s="2">
         <v>43910</v>
       </c>
-      <c r="C8">
-        <v>0.07887698887094986</v>
-      </c>
       <c r="D8">
-        <v>0.03608149618334498</v>
+        <v>0.0793416625549503</v>
       </c>
       <c r="E8">
-        <v>-0.008945727429587139</v>
+        <v>0.03654616986734541</v>
       </c>
       <c r="F8">
-        <v>0.04502722361293211</v>
+        <v>-0.001793700255606829</v>
       </c>
       <c r="G8">
-        <v>0.1657446416546652</v>
+        <v>0.03833987012295224</v>
       </c>
       <c r="H8">
-        <v>0.8342553583453349</v>
+        <v>0.04469326398543135</v>
+      </c>
+      <c r="I8">
+        <v>0.9553067360145686</v>
       </c>
     </row>
     <row r="9">
@@ -602,26 +642,31 @@
           <t>Italy</t>
         </is>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ITinfo21.03.2020</t>
+        </is>
+      </c>
+      <c r="C9" s="2">
         <v>43911</v>
       </c>
-      <c r="C9">
-        <v>0.08132250730196258</v>
-      </c>
       <c r="D9">
-        <v>0.03852701461435768</v>
+        <v>0.08189207623565803</v>
       </c>
       <c r="E9">
-        <v>-0.009197806527930343</v>
+        <v>0.03909658354805316</v>
       </c>
       <c r="F9">
-        <v>0.04772482114228803</v>
+        <v>-0.001645299651824524</v>
       </c>
       <c r="G9">
-        <v>0.1615843629218577</v>
+        <v>0.04074188319987768</v>
       </c>
       <c r="H9">
-        <v>0.8384156370781424</v>
+        <v>0.03881597079902308</v>
+      </c>
+      <c r="I9">
+        <v>0.9611840292009769</v>
       </c>
     </row>
     <row r="10">
@@ -630,26 +675,31 @@
           <t>Italy</t>
         </is>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ITinfo22.03.2020</t>
+        </is>
+      </c>
+      <c r="C10" s="2">
         <v>43912</v>
       </c>
-      <c r="C10">
-        <v>0.08841811769411888</v>
-      </c>
       <c r="D10">
-        <v>0.04562262500651399</v>
+        <v>0.08898534781014335</v>
       </c>
       <c r="E10">
-        <v>-0.008760123667387685</v>
+        <v>0.04618985512253845</v>
       </c>
       <c r="F10">
-        <v>0.05438274867390167</v>
+        <v>-0.001825357338945044</v>
       </c>
       <c r="G10">
-        <v>0.1387349568141107</v>
+        <v>0.04801521246148349</v>
       </c>
       <c r="H10">
-        <v>0.8612650431858894</v>
+        <v>0.03662392597544801</v>
+      </c>
+      <c r="I10">
+        <v>0.9633760740245519</v>
       </c>
     </row>
     <row r="11">
@@ -658,26 +708,31 @@
           <t>Italy</t>
         </is>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ITbol23.03.2020</t>
+        </is>
+      </c>
+      <c r="C11" s="2">
         <v>43913</v>
       </c>
-      <c r="C11">
-        <v>0.08655089758402457</v>
-      </c>
       <c r="D11">
-        <v>0.04375540489641968</v>
+        <v>0.08655074833028965</v>
       </c>
       <c r="E11">
-        <v>-0.01134134369417696</v>
+        <v>0.04375525564268477</v>
       </c>
       <c r="F11">
-        <v>0.05509674859059664</v>
+        <v>-0.004509614320209873</v>
       </c>
       <c r="G11">
-        <v>0.1707054387649266</v>
+        <v>0.04826486996289465</v>
       </c>
       <c r="H11">
-        <v>0.8292945612350734</v>
+        <v>0.08545065634404697</v>
+      </c>
+      <c r="I11">
+        <v>0.914549343655953</v>
       </c>
     </row>
     <row r="12">
@@ -686,26 +741,31 @@
           <t>Italy</t>
         </is>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ITinfo23.03.2020</t>
+        </is>
+      </c>
+      <c r="C12" s="2">
         <v>43913</v>
       </c>
-      <c r="C12">
-        <v>0.0919005225823699</v>
-      </c>
       <c r="D12">
-        <v>0.04910502989476501</v>
+        <v>0.09244660237093577</v>
       </c>
       <c r="E12">
-        <v>-0.007595670867927059</v>
+        <v>0.04965110968333088</v>
       </c>
       <c r="F12">
-        <v>0.05670070076269207</v>
+        <v>-0.0005683713306593245</v>
       </c>
       <c r="G12">
-        <v>0.1181352955896793</v>
+        <v>0.05021948101399021</v>
       </c>
       <c r="H12">
-        <v>0.8818647044103207</v>
+        <v>0.01119108811300626</v>
+      </c>
+      <c r="I12">
+        <v>0.9888089118869937</v>
       </c>
     </row>
     <row r="13">
@@ -714,26 +774,31 @@
           <t>Italy</t>
         </is>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ITinfo24.03.2020</t>
+        </is>
+      </c>
+      <c r="C13" s="2">
         <v>43914</v>
       </c>
-      <c r="C13">
-        <v>0.09303340607688435</v>
-      </c>
       <c r="D13">
-        <v>0.05023791338927946</v>
+        <v>0.09353981180640535</v>
       </c>
       <c r="E13">
-        <v>-0.00777813616395686</v>
+        <v>0.05074431911880046</v>
       </c>
       <c r="F13">
-        <v>0.05801604955323631</v>
+        <v>-0.0008191818007991013</v>
       </c>
       <c r="G13">
-        <v>0.1182192024898683</v>
+        <v>0.05156350091959955</v>
       </c>
       <c r="H13">
-        <v>0.8817807975101317</v>
+        <v>0.01563840869265176</v>
+      </c>
+      <c r="I13">
+        <v>0.9843615913073482</v>
       </c>
     </row>
     <row r="14">
@@ -742,26 +807,31 @@
           <t>Italy</t>
         </is>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ITinfo25.03.2020</t>
+        </is>
+      </c>
+      <c r="C14" s="2">
         <v>43915</v>
       </c>
-      <c r="C14">
-        <v>0.09761224933057054</v>
-      </c>
       <c r="D14">
-        <v>0.05481675664296565</v>
+        <v>0.09761224933057053</v>
       </c>
       <c r="E14">
-        <v>-0.006745914997421222</v>
+        <v>0.05481675664296564</v>
       </c>
       <c r="F14">
-        <v>0.06156267164038688</v>
+        <v>0.0001526904648352182</v>
       </c>
       <c r="G14">
-        <v>0.09875647161593339</v>
+        <v>0.05466406617813043</v>
       </c>
       <c r="H14">
-        <v>0.9012435283840665</v>
+        <v>0.002785470614938547</v>
+      </c>
+      <c r="I14">
+        <v>0.9972145293850615</v>
       </c>
     </row>
     <row r="15">
@@ -770,26 +840,31 @@
           <t>Italy</t>
         </is>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ITbol26.03.2020</t>
+        </is>
+      </c>
+      <c r="C15" s="2">
         <v>43916</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>0.09217957736456678</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>0.04938408467696189</v>
       </c>
-      <c r="E15">
-        <v>-0.01130594266591633</v>
-      </c>
       <c r="F15">
-        <v>0.06069002734287823</v>
+        <v>-0.004668452773933113</v>
       </c>
       <c r="G15">
-        <v>0.1570357710929552</v>
+        <v>0.054052537450895</v>
       </c>
       <c r="H15">
-        <v>0.8429642289070448</v>
+        <v>0.07950228284739008</v>
+      </c>
+      <c r="I15">
+        <v>0.9204977171526099</v>
       </c>
     </row>
     <row r="16">
@@ -798,26 +873,31 @@
           <t>Italy</t>
         </is>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ITinfo26.03.2020</t>
+        </is>
+      </c>
+      <c r="C16" s="2">
         <v>43916</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>0.09630552684121836</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>0.05351003415361347</v>
       </c>
-      <c r="E16">
-        <v>-0.008642120971093972</v>
-      </c>
       <c r="F16">
-        <v>0.06215215512470745</v>
+        <v>-0.001908601978859273</v>
       </c>
       <c r="G16">
-        <v>0.1220737247090307</v>
+        <v>0.05541863613247275</v>
       </c>
       <c r="H16">
-        <v>0.8779262752909695</v>
+        <v>0.03329310885608486</v>
+      </c>
+      <c r="I16">
+        <v>0.9667068911439152</v>
       </c>
     </row>
     <row r="17">
@@ -826,26 +906,31 @@
           <t>Italy</t>
         </is>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ITinfo27.03.2020</t>
+        </is>
+      </c>
+      <c r="C17" s="2">
         <v>43917</v>
       </c>
-      <c r="C17">
-        <v>0.09852677163207846</v>
-      </c>
       <c r="D17">
-        <v>0.05573127894447357</v>
+        <v>0.098834302143884</v>
       </c>
       <c r="E17">
-        <v>-0.008912367949870338</v>
+        <v>0.05603880945627911</v>
       </c>
       <c r="F17">
-        <v>0.0646436468943439</v>
+        <v>-0.002180744779779148</v>
       </c>
       <c r="G17">
-        <v>0.1211643666224444</v>
+        <v>0.05821955423605826</v>
       </c>
       <c r="H17">
-        <v>0.8788356333775556</v>
+        <v>0.03610486728231826</v>
+      </c>
+      <c r="I17">
+        <v>0.9638951327176817</v>
       </c>
     </row>
     <row r="18">
@@ -854,26 +939,31 @@
           <t>Italy</t>
         </is>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>ITinfo28.03.2020</t>
+        </is>
+      </c>
+      <c r="C18" s="2">
         <v>43918</v>
       </c>
-      <c r="C18">
-        <v>0.1040718415549268</v>
-      </c>
       <c r="D18">
-        <v>0.06127634886732191</v>
+        <v>0.1040223193042555</v>
       </c>
       <c r="E18">
-        <v>-0.008534332691252207</v>
+        <v>0.06122682661665057</v>
       </c>
       <c r="F18">
-        <v>0.06981068155857413</v>
+        <v>-0.001912784063720211</v>
       </c>
       <c r="G18">
-        <v>0.1089326841404094</v>
+        <v>0.06313961068037077</v>
       </c>
       <c r="H18">
-        <v>0.8910673158595905</v>
+        <v>0.02940374556916613</v>
+      </c>
+      <c r="I18">
+        <v>0.9705962544308339</v>
       </c>
     </row>
     <row r="19">
@@ -882,26 +972,31 @@
           <t>Italy</t>
         </is>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ITinfo29.03.2020</t>
+        </is>
+      </c>
+      <c r="C19" s="2">
         <v>43919</v>
       </c>
-      <c r="C19">
-        <v>0.1068333978350594</v>
-      </c>
       <c r="D19">
-        <v>0.06403790514745453</v>
+        <v>0.1067546022001637</v>
       </c>
       <c r="E19">
-        <v>-0.009089977724716526</v>
+        <v>0.06395910951255884</v>
       </c>
       <c r="F19">
-        <v>0.07312788287217106</v>
+        <v>-0.002545910381408446</v>
       </c>
       <c r="G19">
-        <v>0.1105596479733825</v>
+        <v>0.06650501989396727</v>
       </c>
       <c r="H19">
-        <v>0.8894403520266175</v>
+        <v>0.03687003739493926</v>
+      </c>
+      <c r="I19">
+        <v>0.9631299626050608</v>
       </c>
     </row>
     <row r="20">
@@ -910,26 +1005,31 @@
           <t>Italy</t>
         </is>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ITbol30.03.2020</t>
+        </is>
+      </c>
+      <c r="C20" s="2">
         <v>43920</v>
       </c>
-      <c r="C20">
-        <v>0.1063066138915367</v>
-      </c>
       <c r="D20">
-        <v>0.06351112120393182</v>
+        <v>0.1063056662990924</v>
       </c>
       <c r="E20">
-        <v>-0.01193157164180236</v>
+        <v>0.06351017361148748</v>
       </c>
       <c r="F20">
-        <v>0.0754426928457342</v>
+        <v>-0.005383668602977325</v>
       </c>
       <c r="G20">
-        <v>0.1365570481397796</v>
+        <v>0.06889384221446482</v>
       </c>
       <c r="H20">
-        <v>0.8634429518602205</v>
+        <v>0.07248046607551514</v>
+      </c>
+      <c r="I20">
+        <v>0.9275195339244848</v>
       </c>
     </row>
     <row r="21">
@@ -938,26 +1038,31 @@
           <t>Italy</t>
         </is>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ITinfo30.03.2020</t>
+        </is>
+      </c>
+      <c r="C21" s="2">
         <v>43920</v>
       </c>
-      <c r="C21">
-        <v>0.1094216564513594</v>
-      </c>
       <c r="D21">
-        <v>0.06662616376375452</v>
+        <v>0.1096378611983518</v>
       </c>
       <c r="E21">
-        <v>-0.01007276215778308</v>
+        <v>0.0668423685107469</v>
       </c>
       <c r="F21">
-        <v>0.07669892592153758</v>
+        <v>-0.003298699961338981</v>
       </c>
       <c r="G21">
-        <v>0.1160835104253735</v>
+        <v>0.0701410684720859</v>
       </c>
       <c r="H21">
-        <v>0.8839164895746265</v>
+        <v>0.04491708010121711</v>
+      </c>
+      <c r="I21">
+        <v>0.9550829198987829</v>
       </c>
     </row>
     <row r="22">
@@ -966,26 +1071,31 @@
           <t>Italy</t>
         </is>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>ITinfo31.03.2020</t>
+        </is>
+      </c>
+      <c r="C22" s="2">
         <v>43921</v>
       </c>
-      <c r="C22">
-        <v>0.1160763913934513</v>
-      </c>
       <c r="D22">
-        <v>0.07328089870584645</v>
+        <v>0.115973131886067</v>
       </c>
       <c r="E22">
-        <v>-0.008594126959789552</v>
+        <v>0.0731776391984621</v>
       </c>
       <c r="F22">
-        <v>0.081875025665636</v>
+        <v>-0.001761581953250026</v>
       </c>
       <c r="G22">
-        <v>0.09499510839205373</v>
+        <v>0.07493922115171212</v>
       </c>
       <c r="H22">
-        <v>0.9050048916079463</v>
+        <v>0.0229669297052779</v>
+      </c>
+      <c r="I22">
+        <v>0.977033070294722</v>
       </c>
     </row>
     <row r="23">
@@ -994,26 +1104,31 @@
           <t>Italy</t>
         </is>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ITinfo01.04.2020</t>
+        </is>
+      </c>
+      <c r="C23" s="2">
         <v>43922</v>
       </c>
-      <c r="C23">
-        <v>0.1183116074493307</v>
-      </c>
       <c r="D23">
-        <v>0.07551611476172579</v>
+        <v>0.1185058363892046</v>
       </c>
       <c r="E23">
-        <v>-0.01006122870785813</v>
+        <v>0.07571034370159968</v>
       </c>
       <c r="F23">
-        <v>0.08557734346958391</v>
+        <v>-0.003291522730549845</v>
       </c>
       <c r="G23">
-        <v>0.1052005323667017</v>
+        <v>0.0790018664321495</v>
       </c>
       <c r="H23">
-        <v>0.8947994676332983</v>
+        <v>0.03999741369312536</v>
+      </c>
+      <c r="I23">
+        <v>0.9600025863068746</v>
       </c>
     </row>
     <row r="24">
@@ -1022,26 +1137,31 @@
           <t>Italy</t>
         </is>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ITbol02.04.2020</t>
+        </is>
+      </c>
+      <c r="C24" s="2">
         <v>43923</v>
       </c>
-      <c r="C24">
-        <v>0.1226522598312383</v>
-      </c>
       <c r="D24">
-        <v>0.07985676714363343</v>
+        <v>0.1179521255348965</v>
       </c>
       <c r="E24">
-        <v>-0.009450035996411895</v>
+        <v>0.07515663284729154</v>
       </c>
       <c r="F24">
-        <v>0.08930680314004531</v>
+        <v>-0.005443972497203979</v>
       </c>
       <c r="G24">
-        <v>0.09568993984664002</v>
+        <v>0.08060060534449554</v>
       </c>
       <c r="H24">
-        <v>0.90431006015336</v>
+        <v>0.06326921037627177</v>
+      </c>
+      <c r="I24">
+        <v>0.9367307896237282</v>
       </c>
     </row>
     <row r="25">
@@ -1050,26 +1170,31 @@
           <t>Italy</t>
         </is>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>ITinfo02.04.2020</t>
+        </is>
+      </c>
+      <c r="C25" s="2">
         <v>43923</v>
       </c>
-      <c r="C25">
-        <v>0.1184248271280611</v>
-      </c>
       <c r="D25">
-        <v>0.07562933444045622</v>
+        <v>0.1185922392482669</v>
       </c>
       <c r="E25">
-        <v>-0.01198187879081628</v>
+        <v>0.07579674656066204</v>
       </c>
       <c r="F25">
-        <v>0.08761121323127249</v>
+        <v>-0.005072936054026334</v>
       </c>
       <c r="G25">
-        <v>0.1203083321096087</v>
+        <v>0.08086968261468838</v>
       </c>
       <c r="H25">
-        <v>0.8796916678903913</v>
+        <v>0.05902701282097436</v>
+      </c>
+      <c r="I25">
+        <v>0.9409729871790256</v>
       </c>
     </row>
     <row r="26">
@@ -1078,26 +1203,31 @@
           <t>Italy</t>
         </is>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>ITinfo03.04.2020</t>
+        </is>
+      </c>
+      <c r="C26" s="2">
         <v>43924</v>
       </c>
-      <c r="C26">
-        <v>0.1181602872777506</v>
-      </c>
       <c r="D26">
-        <v>0.07536479459014572</v>
+        <v>0.1183271254539735</v>
       </c>
       <c r="E26">
-        <v>-0.01195920358542672</v>
+        <v>0.07553163276636862</v>
       </c>
       <c r="F26">
-        <v>0.08732399817557245</v>
+        <v>-0.005034916538852273</v>
       </c>
       <c r="G26">
-        <v>0.1204554584592838</v>
+        <v>0.08056654930522089</v>
       </c>
       <c r="H26">
-        <v>0.8795445415407163</v>
+        <v>0.05881811122281008</v>
+      </c>
+      <c r="I26">
+        <v>0.94118188877719</v>
       </c>
     </row>
     <row r="27">
@@ -1106,26 +1236,31 @@
           <t>Italy</t>
         </is>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>ITinfo04.04.2020</t>
+        </is>
+      </c>
+      <c r="C27" s="2">
         <v>43925</v>
       </c>
-      <c r="C27">
-        <v>0.1188512226001171</v>
-      </c>
       <c r="D27">
-        <v>0.07605572991251217</v>
+        <v>0.119012843806132</v>
       </c>
       <c r="E27">
-        <v>-0.01201565855867775</v>
+        <v>0.07621735111852707</v>
       </c>
       <c r="F27">
-        <v>0.08807138847118992</v>
+        <v>-0.005022486533777666</v>
       </c>
       <c r="G27">
-        <v>0.1200520838135236</v>
+        <v>0.08123983765230472</v>
       </c>
       <c r="H27">
-        <v>0.8799479161864764</v>
+        <v>0.0582234084366115</v>
+      </c>
+      <c r="I27">
+        <v>0.9417765915633884</v>
       </c>
     </row>
     <row r="28">
@@ -1134,26 +1269,31 @@
           <t>Italy</t>
         </is>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>ITinfo05.04.2020</t>
+        </is>
+      </c>
+      <c r="C28" s="2">
         <v>43926</v>
       </c>
-      <c r="C28">
-        <v>0.1184472032807328</v>
-      </c>
       <c r="D28">
-        <v>0.07565171059312789</v>
+        <v>0.11860183945054</v>
       </c>
       <c r="E28">
-        <v>-0.01289169010586391</v>
+        <v>0.07580634676293513</v>
       </c>
       <c r="F28">
-        <v>0.0885434006989918</v>
+        <v>-0.006131538149679192</v>
       </c>
       <c r="G28">
-        <v>0.1270930010864326</v>
+        <v>0.08193788491261432</v>
       </c>
       <c r="H28">
-        <v>0.8729069989135675</v>
+        <v>0.06962164547554962</v>
+      </c>
+      <c r="I28">
+        <v>0.9303783545244504</v>
       </c>
     </row>
     <row r="29">
@@ -1162,26 +1302,31 @@
           <t>Italy</t>
         </is>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>ITbol06.04.2020</t>
+        </is>
+      </c>
+      <c r="C29" s="2">
         <v>43927</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>0.1193307475487244</v>
       </c>
-      <c r="D29">
-        <v>0.07653525486111951</v>
-      </c>
       <c r="E29">
-        <v>-0.01201674115314846</v>
+        <v>0.07653525486111948</v>
       </c>
       <c r="F29">
-        <v>0.08855199601426796</v>
+        <v>-0.005299135495016716</v>
       </c>
       <c r="G29">
-        <v>0.1194878397761348</v>
+        <v>0.0818343903561362</v>
       </c>
       <c r="H29">
-        <v>0.8805121602238653</v>
+        <v>0.0608162638118081</v>
+      </c>
+      <c r="I29">
+        <v>0.9391837361881918</v>
       </c>
     </row>
     <row r="30">
@@ -1190,26 +1335,31 @@
           <t>Italy</t>
         </is>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>ITinfo06.04.2020</t>
+        </is>
+      </c>
+      <c r="C30" s="2">
         <v>43927</v>
       </c>
-      <c r="C30">
-        <v>0.1182901152261737</v>
-      </c>
       <c r="D30">
-        <v>0.07549462253856876</v>
+        <v>0.1184391747778653</v>
       </c>
       <c r="E30">
-        <v>-0.0125874609386457</v>
+        <v>0.0756436820902604</v>
       </c>
       <c r="F30">
-        <v>0.08808208347721445</v>
+        <v>-0.005825568143260162</v>
       </c>
       <c r="G30">
-        <v>0.1250374282677551</v>
+        <v>0.08146925023352054</v>
       </c>
       <c r="H30">
-        <v>0.8749625717322449</v>
+        <v>0.06673440934507618</v>
+      </c>
+      <c r="I30">
+        <v>0.9332655906549239</v>
       </c>
     </row>
     <row r="31">
@@ -1218,26 +1368,31 @@
           <t>Italy</t>
         </is>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>ITinfo07.04.2020</t>
+        </is>
+      </c>
+      <c r="C31" s="2">
         <v>43928</v>
       </c>
-      <c r="C31">
-        <v>0.1217573532574061</v>
-      </c>
       <c r="D31">
-        <v>0.07896186056980117</v>
+        <v>0.1219013068431358</v>
       </c>
       <c r="E31">
-        <v>-0.01213877532354349</v>
+        <v>0.07910581415553089</v>
       </c>
       <c r="F31">
-        <v>0.09110063589334465</v>
+        <v>-0.005385132924245829</v>
       </c>
       <c r="G31">
-        <v>0.1175788895002706</v>
+        <v>0.0844909470797767</v>
       </c>
       <c r="H31">
-        <v>0.8824211104997294</v>
+        <v>0.05991730974475978</v>
+      </c>
+      <c r="I31">
+        <v>0.9400826902552402</v>
       </c>
     </row>
     <row r="32">
@@ -1246,26 +1401,31 @@
           <t>Italy</t>
         </is>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>ITinfo08.04.2020</t>
+        </is>
+      </c>
+      <c r="C32" s="2">
         <v>43929</v>
       </c>
-      <c r="C32">
-        <v>0.1258695347424495</v>
-      </c>
       <c r="D32">
-        <v>0.08307404205484462</v>
+        <v>0.1260018149612683</v>
       </c>
       <c r="E32">
-        <v>-0.00999570396931908</v>
+        <v>0.08320632227366345</v>
       </c>
       <c r="F32">
-        <v>0.09306974602416368</v>
+        <v>-0.003014846919597228</v>
       </c>
       <c r="G32">
-        <v>0.0969840423726006</v>
+        <v>0.0862211691932607</v>
       </c>
       <c r="H32">
-        <v>0.9030159576273994</v>
+        <v>0.03378509094113202</v>
+      </c>
+      <c r="I32">
+        <v>0.9662149090588679</v>
       </c>
     </row>
     <row r="33">
@@ -1274,26 +1434,31 @@
           <t>Italy</t>
         </is>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>ITbol09.04.2020</t>
+        </is>
+      </c>
+      <c r="C33" s="2">
         <v>43930</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>0.122356092604443</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>0.07956059991683812</v>
       </c>
-      <c r="E33">
-        <v>-0.01158899952857768</v>
-      </c>
       <c r="F33">
-        <v>0.09114959944541581</v>
+        <v>-0.004905693888936829</v>
       </c>
       <c r="G33">
-        <v>0.1128008328350987</v>
+        <v>0.08446629380577495</v>
       </c>
       <c r="H33">
-        <v>0.8871991671649013</v>
+        <v>0.05489073271699319</v>
+      </c>
+      <c r="I33">
+        <v>0.9451092672830068</v>
       </c>
     </row>
     <row r="34">
@@ -1302,26 +1467,31 @@
           <t>Italy</t>
         </is>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>ITinfo09.04.2020</t>
+        </is>
+      </c>
+      <c r="C34" s="2">
         <v>43930</v>
       </c>
-      <c r="C34">
-        <v>0.1243886590084101</v>
-      </c>
       <c r="D34">
-        <v>0.08159316632080524</v>
+        <v>0.1245142092395571</v>
       </c>
       <c r="E34">
-        <v>-0.010450814751991</v>
+        <v>0.08171871655195218</v>
       </c>
       <c r="F34">
-        <v>0.09204398107279625</v>
+        <v>-0.003549161089036229</v>
       </c>
       <c r="G34">
-        <v>0.1019643452908229</v>
+        <v>0.08526787764098842</v>
       </c>
       <c r="H34">
-        <v>0.8980356547091771</v>
+        <v>0.03996036278381834</v>
+      </c>
+      <c r="I34">
+        <v>0.9600396372161817</v>
       </c>
     </row>
     <row r="35">
@@ -1330,26 +1500,31 @@
           <t>Italy</t>
         </is>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>ITinfo10.04.2020</t>
+        </is>
+      </c>
+      <c r="C35" s="2">
         <v>43931</v>
       </c>
-      <c r="C35">
-        <v>0.1268083105054177</v>
-      </c>
       <c r="D35">
-        <v>0.08401281781781284</v>
+        <v>0.126917125504978</v>
       </c>
       <c r="E35">
-        <v>-0.01043916346306427</v>
+        <v>0.08412163281737309</v>
       </c>
       <c r="F35">
-        <v>0.09445198128087709</v>
+        <v>-0.003401694163482377</v>
       </c>
       <c r="G35">
-        <v>0.09952378237980138</v>
+        <v>0.08752332698085547</v>
       </c>
       <c r="H35">
-        <v>0.9004762176201986</v>
+        <v>0.03741207998271893</v>
+      </c>
+      <c r="I35">
+        <v>0.9625879200172811</v>
       </c>
     </row>
     <row r="36">
@@ -1358,26 +1533,31 @@
           <t>Italy</t>
         </is>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>ITinfo11.04.2020</t>
+        </is>
+      </c>
+      <c r="C36" s="2">
         <v>43932</v>
       </c>
-      <c r="C36">
-        <v>0.1272850117438769</v>
-      </c>
       <c r="D36">
-        <v>0.08448951905627203</v>
+        <v>0.1273910848496484</v>
       </c>
       <c r="E36">
-        <v>-0.01009605021245804</v>
+        <v>0.08459559216204352</v>
       </c>
       <c r="F36">
-        <v>0.09458556926873005</v>
+        <v>-0.003039732464943803</v>
       </c>
       <c r="G36">
-        <v>0.09644530016343852</v>
+        <v>0.08763532462698731</v>
       </c>
       <c r="H36">
-        <v>0.9035546998365615</v>
+        <v>0.03352335871001397</v>
+      </c>
+      <c r="I36">
+        <v>0.966476641289986</v>
       </c>
     </row>
     <row r="37">
@@ -1386,26 +1566,31 @@
           <t>Italy</t>
         </is>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>ITinfo12.04.2020</t>
+        </is>
+      </c>
+      <c r="C37" s="2">
         <v>43933</v>
       </c>
-      <c r="C37">
-        <v>0.1281204503424168</v>
-      </c>
       <c r="D37">
-        <v>0.08532495765481188</v>
+        <v>0.1282414018231521</v>
       </c>
       <c r="E37">
-        <v>-0.009688529023479562</v>
+        <v>0.08544590913554725</v>
       </c>
       <c r="F37">
-        <v>0.09501348667829145</v>
+        <v>-0.002348596866766919</v>
       </c>
       <c r="G37">
-        <v>0.09253431233908596</v>
+        <v>0.08779450600231419</v>
       </c>
       <c r="H37">
-        <v>0.907465687660914</v>
+        <v>0.02605409390198041</v>
+      </c>
+      <c r="I37">
+        <v>0.9739459060980196</v>
       </c>
     </row>
     <row r="38">
@@ -1414,26 +1599,31 @@
           <t>Italy</t>
         </is>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>ITinfo13.04.2020</t>
+        </is>
+      </c>
+      <c r="C38" s="2">
         <v>43934</v>
       </c>
-      <c r="C38">
-        <v>0.1273979942618996</v>
-      </c>
       <c r="D38">
-        <v>0.08460250157429472</v>
+        <v>0.1275154700811435</v>
       </c>
       <c r="E38">
-        <v>-0.008829469244627762</v>
+        <v>0.08471997739353865</v>
       </c>
       <c r="F38">
-        <v>0.09343197081892248</v>
+        <v>-0.001245997582918107</v>
       </c>
       <c r="G38">
-        <v>0.08634211721584109</v>
+        <v>0.08596597497645676</v>
       </c>
       <c r="H38">
-        <v>0.9136578827841589</v>
+        <v>0.01428700150165527</v>
+      </c>
+      <c r="I38">
+        <v>0.9857129984983448</v>
       </c>
     </row>
     <row r="39">
@@ -1442,26 +1632,31 @@
           <t>Italy</t>
         </is>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>ITinfo15.04.2020</t>
+        </is>
+      </c>
+      <c r="C39" s="2">
         <v>43936</v>
       </c>
-      <c r="C39">
-        <v>0.1254792814685551</v>
-      </c>
       <c r="D39">
-        <v>0.0826837887809502</v>
+        <v>0.1265815474718924</v>
       </c>
       <c r="E39">
-        <v>-0.01007294757108519</v>
+        <v>0.08378605478428755</v>
       </c>
       <c r="F39">
-        <v>0.09275673635203538</v>
+        <v>-0.002293433805293435</v>
       </c>
       <c r="G39">
-        <v>0.09795758565801011</v>
+        <v>0.08607948858958099</v>
       </c>
       <c r="H39">
-        <v>0.9020424143419898</v>
+        <v>0.02595177055530363</v>
+      </c>
+      <c r="I39">
+        <v>0.9740482294446963</v>
       </c>
     </row>
     <row r="40">
@@ -1470,26 +1665,31 @@
           <t>Italy</t>
         </is>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>ITbol16.04.2020</t>
+        </is>
+      </c>
+      <c r="C40" s="2">
         <v>43937</v>
       </c>
-      <c r="C40">
-        <v>0.125676431583777</v>
-      </c>
       <c r="D40">
-        <v>0.08288093889617207</v>
+        <v>0.1256758820641971</v>
       </c>
       <c r="E40">
-        <v>-0.01054772225316979</v>
+        <v>0.08288038937659223</v>
       </c>
       <c r="F40">
-        <v>0.09342866114934187</v>
+        <v>-0.002561283428275054</v>
       </c>
       <c r="G40">
-        <v>0.1014434423280296</v>
+        <v>0.08544167280486727</v>
       </c>
       <c r="H40">
-        <v>0.8985565576719704</v>
+        <v>0.02910451577887406</v>
+      </c>
+      <c r="I40">
+        <v>0.9708954842211259</v>
       </c>
     </row>
     <row r="41">
@@ -1498,26 +1698,31 @@
           <t>Italy</t>
         </is>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ITinfo17.04.2020</t>
+        </is>
+      </c>
+      <c r="C41" s="2">
         <v>43938</v>
       </c>
-      <c r="C41">
-        <v>0.1267307432342762</v>
-      </c>
       <c r="D41">
-        <v>0.08393525054667128</v>
+        <v>0.1289137063232133</v>
       </c>
       <c r="E41">
-        <v>-0.009344758275452674</v>
+        <v>0.08611821363560837</v>
       </c>
       <c r="F41">
-        <v>0.09328000882212395</v>
+        <v>-0.001129463163064849</v>
       </c>
       <c r="G41">
-        <v>0.0910575345478503</v>
+        <v>0.08724767679867321</v>
       </c>
       <c r="H41">
-        <v>0.9089424654521497</v>
+        <v>0.01278003750238849</v>
+      </c>
+      <c r="I41">
+        <v>0.9872199624976115</v>
       </c>
     </row>
     <row r="42">
@@ -1526,26 +1731,31 @@
           <t>Italy</t>
         </is>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>ITinfo20.04.2020</t>
+        </is>
+      </c>
+      <c r="C42" s="2">
         <v>43941</v>
       </c>
-      <c r="C42">
-        <v>0.1272752828730058</v>
-      </c>
       <c r="D42">
-        <v>0.08447979018540094</v>
+        <v>0.1298245191294028</v>
       </c>
       <c r="E42">
-        <v>-0.008995464874863166</v>
+        <v>0.08702902644179794</v>
       </c>
       <c r="F42">
-        <v>0.09347525506026412</v>
+        <v>-0.0001807271404785618</v>
       </c>
       <c r="G42">
-        <v>0.08778570971842556</v>
+        <v>0.08720975358227651</v>
       </c>
       <c r="H42">
-        <v>0.9122142902815745</v>
+        <v>0.002068041495868592</v>
+      </c>
+      <c r="I42">
+        <v>0.9979319585041314</v>
       </c>
     </row>
     <row r="43">
@@ -1554,26 +1764,988 @@
           <t>Italy</t>
         </is>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ITinfo22.04.2020</t>
+        </is>
+      </c>
+      <c r="C43" s="2">
         <v>43943</v>
       </c>
-      <c r="C43">
-        <v>0.1300061819994451</v>
-      </c>
       <c r="D43">
-        <v>0.08721068931184023</v>
+        <v>0.1341736102282732</v>
       </c>
       <c r="E43">
-        <v>-0.008081504117990253</v>
+        <v>0.0913781175406683</v>
       </c>
       <c r="F43">
-        <v>0.09529219342983047</v>
+        <v>0.001240228263076029</v>
       </c>
       <c r="G43">
-        <v>0.07817756653477298</v>
+        <v>0.09013788927759227</v>
       </c>
       <c r="H43">
-        <v>0.9218224334652271</v>
+        <v>0.01357248646016437</v>
+      </c>
+      <c r="I43">
+        <v>0.9864275135398356</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>ITbol23.04.2020</t>
+        </is>
+      </c>
+      <c r="C44" s="2">
+        <v>43944</v>
+      </c>
+      <c r="D44">
+        <v>0.1308997466456516</v>
+      </c>
+      <c r="E44">
+        <v>0.08810425395804675</v>
+      </c>
+      <c r="F44">
+        <v>-0.001299152406282378</v>
+      </c>
+      <c r="G44">
+        <v>0.08940340636432914</v>
+      </c>
+      <c r="H44">
+        <v>0.0143232167194749</v>
+      </c>
+      <c r="I44">
+        <v>0.9856767832805251</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>ITinfo24.04.2020</t>
+        </is>
+      </c>
+      <c r="C45" s="2">
+        <v>43945</v>
+      </c>
+      <c r="D45">
+        <v>0.1324891105033137</v>
+      </c>
+      <c r="E45">
+        <v>0.08969361781570875</v>
+      </c>
+      <c r="F45">
+        <v>0.001552824325158736</v>
+      </c>
+      <c r="G45">
+        <v>0.08814079349055</v>
+      </c>
+      <c r="H45">
+        <v>0.01731253976564181</v>
+      </c>
+      <c r="I45">
+        <v>0.9826874602343582</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>ITinfo27.04.2020</t>
+        </is>
+      </c>
+      <c r="C46" s="2">
+        <v>43948</v>
+      </c>
+      <c r="D46">
+        <v>0.1275359215885685</v>
+      </c>
+      <c r="E46">
+        <v>0.08474042890096362</v>
+      </c>
+      <c r="F46">
+        <v>0.0008270407438791575</v>
+      </c>
+      <c r="G46">
+        <v>0.08391338815708445</v>
+      </c>
+      <c r="H46">
+        <v>0.009759695042914199</v>
+      </c>
+      <c r="I46">
+        <v>0.9902403049570858</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>ITbol28.04.2020</t>
+        </is>
+      </c>
+      <c r="C47" s="2">
+        <v>43949</v>
+      </c>
+      <c r="D47">
+        <v>0.1264099864641299</v>
+      </c>
+      <c r="E47">
+        <v>0.08361449377652505</v>
+      </c>
+      <c r="F47">
+        <v>-0.0001781881049303397</v>
+      </c>
+      <c r="G47">
+        <v>0.08379268188145539</v>
+      </c>
+      <c r="H47">
+        <v>0.00212202285101047</v>
+      </c>
+      <c r="I47">
+        <v>0.9978779771489895</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>ITinfo28.04.2020</t>
+        </is>
+      </c>
+      <c r="C48" s="2">
+        <v>43949</v>
+      </c>
+      <c r="D48">
+        <v>0.129307161816772</v>
+      </c>
+      <c r="E48">
+        <v>0.08651166912916716</v>
+      </c>
+      <c r="F48">
+        <v>0.001723354929579808</v>
+      </c>
+      <c r="G48">
+        <v>0.08478831419958735</v>
+      </c>
+      <c r="H48">
+        <v>0.01992049103811342</v>
+      </c>
+      <c r="I48">
+        <v>0.9800795089618866</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>ITinfo01.05.2020</t>
+        </is>
+      </c>
+      <c r="C49" s="2">
+        <v>43952</v>
+      </c>
+      <c r="D49">
+        <v>0.1296541659656944</v>
+      </c>
+      <c r="E49">
+        <v>0.08685867327808947</v>
+      </c>
+      <c r="F49">
+        <v>0.001420139482012294</v>
+      </c>
+      <c r="G49">
+        <v>0.08543853379607716</v>
+      </c>
+      <c r="H49">
+        <v>0.0163500020022817</v>
+      </c>
+      <c r="I49">
+        <v>0.9836499979977184</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>ITinfo04.05.2020</t>
+        </is>
+      </c>
+      <c r="C50" s="2">
+        <v>43955</v>
+      </c>
+      <c r="D50">
+        <v>0.1314821913307414</v>
+      </c>
+      <c r="E50">
+        <v>0.0886866986431365</v>
+      </c>
+      <c r="F50">
+        <v>0.001871955839886519</v>
+      </c>
+      <c r="G50">
+        <v>0.08681474280324995</v>
+      </c>
+      <c r="H50">
+        <v>0.02110751520269146</v>
+      </c>
+      <c r="I50">
+        <v>0.9788924847973086</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>ITinfo06.05.2020</t>
+        </is>
+      </c>
+      <c r="C51" s="2">
+        <v>43957</v>
+      </c>
+      <c r="D51">
+        <v>0.1305442105248114</v>
+      </c>
+      <c r="E51">
+        <v>0.08774871783720648</v>
+      </c>
+      <c r="F51">
+        <v>0.0009852593161501209</v>
+      </c>
+      <c r="G51">
+        <v>0.08676345852105635</v>
+      </c>
+      <c r="H51">
+        <v>0.01122819045604743</v>
+      </c>
+      <c r="I51">
+        <v>0.9887718095439526</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>ITbol07.05.2020</t>
+        </is>
+      </c>
+      <c r="C52" s="2">
+        <v>43958</v>
+      </c>
+      <c r="D52">
+        <v>0.1305679366622903</v>
+      </c>
+      <c r="E52">
+        <v>0.08777244397468537</v>
+      </c>
+      <c r="F52">
+        <v>2.084839849285771e-005</v>
+      </c>
+      <c r="G52">
+        <v>0.08775159557619251</v>
+      </c>
+      <c r="H52">
+        <v>0.000237527833893638</v>
+      </c>
+      <c r="I52">
+        <v>0.9997624721661064</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>ITinfo08.05.2020</t>
+        </is>
+      </c>
+      <c r="C53" s="2">
+        <v>43959</v>
+      </c>
+      <c r="D53">
+        <v>0.133688335108815</v>
+      </c>
+      <c r="E53">
+        <v>0.09089284242121015</v>
+      </c>
+      <c r="F53">
+        <v>0.001646343428246556</v>
+      </c>
+      <c r="G53">
+        <v>0.08924649899296361</v>
+      </c>
+      <c r="H53">
+        <v>0.01811301511088376</v>
+      </c>
+      <c r="I53">
+        <v>0.9818869848891162</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>ITinfo11.05.2020</t>
+        </is>
+      </c>
+      <c r="C54" s="2">
+        <v>43962</v>
+      </c>
+      <c r="D54">
+        <v>0.1340709407509698</v>
+      </c>
+      <c r="E54">
+        <v>0.09127544806336493</v>
+      </c>
+      <c r="F54">
+        <v>0.001333789272859442</v>
+      </c>
+      <c r="G54">
+        <v>0.0899416587905055</v>
+      </c>
+      <c r="H54">
+        <v>0.01461279348564253</v>
+      </c>
+      <c r="I54">
+        <v>0.9853872065143574</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>ITinfo13.05.2020</t>
+        </is>
+      </c>
+      <c r="C55" s="2">
+        <v>43964</v>
+      </c>
+      <c r="D55">
+        <v>0.1351514039038042</v>
+      </c>
+      <c r="E55">
+        <v>0.09235591121619935</v>
+      </c>
+      <c r="F55">
+        <v>0.0008890547596047863</v>
+      </c>
+      <c r="G55">
+        <v>0.09146685645659457</v>
+      </c>
+      <c r="H55">
+        <v>0.009626398006334054</v>
+      </c>
+      <c r="I55">
+        <v>0.990373601993666</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>ITbol14.05.2020</t>
+        </is>
+      </c>
+      <c r="C56" s="2">
+        <v>43965</v>
+      </c>
+      <c r="D56">
+        <v>0.13370324022769</v>
+      </c>
+      <c r="E56">
+        <v>0.09090774754008507</v>
+      </c>
+      <c r="F56">
+        <v>-0.0002139798351383737</v>
+      </c>
+      <c r="G56">
+        <v>0.09112172737522345</v>
+      </c>
+      <c r="H56">
+        <v>0.002342784018144639</v>
+      </c>
+      <c r="I56">
+        <v>0.9976572159818553</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>ITinfo15.05.2020</t>
+        </is>
+      </c>
+      <c r="C57" s="2">
+        <v>43966</v>
+      </c>
+      <c r="D57">
+        <v>0.1378442531529728</v>
+      </c>
+      <c r="E57">
+        <v>0.09504876046536792</v>
+      </c>
+      <c r="F57">
+        <v>0.002238917460346626</v>
+      </c>
+      <c r="G57">
+        <v>0.09280984300502128</v>
+      </c>
+      <c r="H57">
+        <v>0.0235554619480009</v>
+      </c>
+      <c r="I57">
+        <v>0.976444538051999</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>ITinfo18.05.2020</t>
+        </is>
+      </c>
+      <c r="C58" s="2">
+        <v>43969</v>
+      </c>
+      <c r="D58">
+        <v>0.1353679887642606</v>
+      </c>
+      <c r="E58">
+        <v>0.09257249607665569</v>
+      </c>
+      <c r="F58">
+        <v>0.0001728404476786415</v>
+      </c>
+      <c r="G58">
+        <v>0.09239965562897705</v>
+      </c>
+      <c r="H58">
+        <v>0.001867082070850926</v>
+      </c>
+      <c r="I58">
+        <v>0.9981329179291492</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>ITbol20.05.2020</t>
+        </is>
+      </c>
+      <c r="C59" s="2">
+        <v>43971</v>
+      </c>
+      <c r="D59">
+        <v>0.1365161425486094</v>
+      </c>
+      <c r="E59">
+        <v>0.09372064986100454</v>
+      </c>
+      <c r="F59">
+        <v>-0.0003547417321585291</v>
+      </c>
+      <c r="G59">
+        <v>0.09407539159316306</v>
+      </c>
+      <c r="H59">
+        <v>0.00375665817325924</v>
+      </c>
+      <c r="I59">
+        <v>0.9962433418267407</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>ITinfo20.05.2020</t>
+        </is>
+      </c>
+      <c r="C60" s="2">
+        <v>43971</v>
+      </c>
+      <c r="D60">
+        <v>0.1357733460160764</v>
+      </c>
+      <c r="E60">
+        <v>0.0929778533284715</v>
+      </c>
+      <c r="F60">
+        <v>-0.0008941880465602312</v>
+      </c>
+      <c r="G60">
+        <v>0.09387204137503173</v>
+      </c>
+      <c r="H60">
+        <v>0.009435724645983386</v>
+      </c>
+      <c r="I60">
+        <v>0.9905642753540166</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>ITinfo22.05.2020</t>
+        </is>
+      </c>
+      <c r="C61" s="2">
+        <v>43973</v>
+      </c>
+      <c r="D61">
+        <v>0.1369439773442913</v>
+      </c>
+      <c r="E61">
+        <v>0.09414848465668643</v>
+      </c>
+      <c r="F61">
+        <v>-0.0003979694646848722</v>
+      </c>
+      <c r="G61">
+        <v>0.09454645412137129</v>
+      </c>
+      <c r="H61">
+        <v>0.004191604410807327</v>
+      </c>
+      <c r="I61">
+        <v>0.9958083955891927</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>ITinfo25.05.2020</t>
+        </is>
+      </c>
+      <c r="C62" s="2">
+        <v>43976</v>
+      </c>
+      <c r="D62">
+        <v>0.1378469551842271</v>
+      </c>
+      <c r="E62">
+        <v>0.09505146249662219</v>
+      </c>
+      <c r="F62">
+        <v>0.0001229663225697859</v>
+      </c>
+      <c r="G62">
+        <v>0.0949284961740524</v>
+      </c>
+      <c r="H62">
+        <v>0.00129368154197686</v>
+      </c>
+      <c r="I62">
+        <v>0.9987063184580231</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>ITbol26.05.2020</t>
+        </is>
+      </c>
+      <c r="C63" s="2">
+        <v>43977</v>
+      </c>
+      <c r="D63">
+        <v>0.1372377671611114</v>
+      </c>
+      <c r="E63">
+        <v>0.09444227447350651</v>
+      </c>
+      <c r="F63">
+        <v>-0.0005369770860989326</v>
+      </c>
+      <c r="G63">
+        <v>0.09497925155960543</v>
+      </c>
+      <c r="H63">
+        <v>0.005621841374105405</v>
+      </c>
+      <c r="I63">
+        <v>0.9943781586258946</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>ITinfo27.05.2020</t>
+        </is>
+      </c>
+      <c r="C64" s="2">
+        <v>43978</v>
+      </c>
+      <c r="D64">
+        <v>0.138265298339134</v>
+      </c>
+      <c r="E64">
+        <v>0.0954698056515291</v>
+      </c>
+      <c r="F64">
+        <v>0.0001170962875020103</v>
+      </c>
+      <c r="G64">
+        <v>0.09535270936402708</v>
+      </c>
+      <c r="H64">
+        <v>0.001226526928623059</v>
+      </c>
+      <c r="I64">
+        <v>0.998773473071377</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>ITinfo29.05.2020</t>
+        </is>
+      </c>
+      <c r="C65" s="2">
+        <v>43980</v>
+      </c>
+      <c r="D65">
+        <v>0.1378957767691213</v>
+      </c>
+      <c r="E65">
+        <v>0.09510028408151641</v>
+      </c>
+      <c r="F65">
+        <v>-0.0002977276088483584</v>
+      </c>
+      <c r="G65">
+        <v>0.09539801169036476</v>
+      </c>
+      <c r="H65">
+        <v>0.003111189808748429</v>
+      </c>
+      <c r="I65">
+        <v>0.9968888101912515</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>ITinfo01.06.2020</t>
+        </is>
+      </c>
+      <c r="C66" s="2">
+        <v>43983</v>
+      </c>
+      <c r="D66">
+        <v>0.137850667122819</v>
+      </c>
+      <c r="E66">
+        <v>0.09505517443521414</v>
+      </c>
+      <c r="F66">
+        <v>-0.0008136434357321939</v>
+      </c>
+      <c r="G66">
+        <v>0.09586881787094632</v>
+      </c>
+      <c r="H66">
+        <v>0.008415626006368438</v>
+      </c>
+      <c r="I66">
+        <v>0.9915843739936316</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>ITbol03.06.2020</t>
+        </is>
+      </c>
+      <c r="C67" s="2">
+        <v>43985</v>
+      </c>
+      <c r="D67">
+        <v>0.1381946787744694</v>
+      </c>
+      <c r="E67">
+        <v>0.09539918608686451</v>
+      </c>
+      <c r="F67">
+        <v>-0.000695079487073819</v>
+      </c>
+      <c r="G67">
+        <v>0.09609426557393833</v>
+      </c>
+      <c r="H67">
+        <v>0.007181363678364273</v>
+      </c>
+      <c r="I67">
+        <v>0.9928186363216358</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>ITinfo03.06.2020</t>
+        </is>
+      </c>
+      <c r="C68" s="2">
+        <v>43985</v>
+      </c>
+      <c r="D68">
+        <v>0.1376497101204488</v>
+      </c>
+      <c r="E68">
+        <v>0.09485421743284392</v>
+      </c>
+      <c r="F68">
+        <v>-0.001088555916110688</v>
+      </c>
+      <c r="G68">
+        <v>0.09594277334895461</v>
+      </c>
+      <c r="H68">
+        <v>0.01121860253132291</v>
+      </c>
+      <c r="I68">
+        <v>0.9887813974686771</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>ITbol09.06.2020</t>
+        </is>
+      </c>
+      <c r="C69" s="2">
+        <v>43991</v>
+      </c>
+      <c r="D69">
+        <v>0.1391910171439233</v>
+      </c>
+      <c r="E69">
+        <v>0.09639552445631841</v>
+      </c>
+      <c r="F69">
+        <v>-0.0007836391260430531</v>
+      </c>
+      <c r="G69">
+        <v>0.09717916358236146</v>
+      </c>
+      <c r="H69">
+        <v>0.007999353881040221</v>
+      </c>
+      <c r="I69">
+        <v>0.9920006461189598</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>ITbol16.06.2020</t>
+        </is>
+      </c>
+      <c r="C70" s="2">
+        <v>43998</v>
+      </c>
+      <c r="D70">
+        <v>0.1394855553968801</v>
+      </c>
+      <c r="E70">
+        <v>0.09669006270927519</v>
+      </c>
+      <c r="F70">
+        <v>-0.0009804706229967219</v>
+      </c>
+      <c r="G70">
+        <v>0.09767053333227191</v>
+      </c>
+      <c r="H70">
+        <v>0.009938779978775453</v>
+      </c>
+      <c r="I70">
+        <v>0.9900612200212245</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>ITbol23.06.2020</t>
+        </is>
+      </c>
+      <c r="C71" s="2">
+        <v>44005</v>
+      </c>
+      <c r="D71">
+        <v>0.1399279960285179</v>
+      </c>
+      <c r="E71">
+        <v>0.09713250334091303</v>
+      </c>
+      <c r="F71">
+        <v>-0.001109334761301814</v>
+      </c>
+      <c r="G71">
+        <v>0.09824183810221485</v>
+      </c>
+      <c r="H71">
+        <v>0.01116579431654782</v>
+      </c>
+      <c r="I71">
+        <v>0.9888342056834522</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>ITbol30.06.2020</t>
+        </is>
+      </c>
+      <c r="C72" s="2">
+        <v>44012</v>
+      </c>
+      <c r="D72">
+        <v>0.1403006799609075</v>
+      </c>
+      <c r="E72">
+        <v>0.09750518727330257</v>
+      </c>
+      <c r="F72">
+        <v>-0.00125456478228689</v>
+      </c>
+      <c r="G72">
+        <v>0.09875975205558944</v>
+      </c>
+      <c r="H72">
+        <v>0.01254385193992322</v>
+      </c>
+      <c r="I72">
+        <v>0.9874561480600768</v>
       </c>
     </row>
   </sheetData>
